--- a/apps/load_data/2016/06/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/06/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY0616\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY0616\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F8790F-BF8D-4760-AF71-D60FC9E46055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B515B6-3844-4026-93FA-640E40CD00DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$237</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$237</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9586" uniqueCount="2588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9574" uniqueCount="2587">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6968,9 +6969,6 @@
   </si>
   <si>
     <t>0135A         1</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047     99709     997091081    296920    2969201082    159880    1598802001         0     386002006     42200     422002026    190284    1902842086      2500      25002180       250       2502182       100       1002503        50        50</t>
@@ -7792,7 +7790,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8632,10 +8630,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD221" sqref="AC210:AD221"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45448,12 +45448,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -45518,7 +45513,7 @@
         <v>112</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>2018</v>
@@ -45530,7 +45525,7 @@
         <v>102</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>119</v>
@@ -45551,13 +45546,13 @@
         <v>108</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2320</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45592,19 +45587,19 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2321</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2323</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="Q211" s="3">
         <v>27241</v>
@@ -45630,12 +45625,7 @@
       <c r="AB211" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -45682,7 +45672,7 @@
         <v>108</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB211" s="1">
         <v>6</v>
@@ -45700,7 +45690,7 @@
         <v>112</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>1635</v>
@@ -45715,13 +45705,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BS211" s="3">
         <v>36949</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>119</v>
@@ -45745,13 +45735,13 @@
         <v>108</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1928</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45786,19 +45776,19 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2332</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2333</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="Q212" s="3">
         <v>25223</v>
@@ -45824,12 +45814,7 @@
       <c r="AB212" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -45876,7 +45861,7 @@
         <v>108</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BB212" s="1">
         <v>6</v>
@@ -45897,10 +45882,10 @@
         <v>112</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2337</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>115</v>
@@ -45912,13 +45897,13 @@
         <v>99</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BS212" s="3">
         <v>36825</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>119</v>
@@ -45942,13 +45927,13 @@
         <v>108</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -45983,19 +45968,19 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="Q213" s="3">
         <v>27018</v>
@@ -46018,12 +46003,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -46073,7 +46053,7 @@
         <v>108</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BB213" s="1">
         <v>6</v>
@@ -46091,7 +46071,7 @@
         <v>112</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>187</v>
@@ -46103,7 +46083,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>119</v>
@@ -46121,13 +46101,13 @@
         <v>108</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="CD213" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46162,19 +46142,19 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="Q214" s="3">
         <v>29037</v>
@@ -46197,12 +46177,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -46252,7 +46227,7 @@
         <v>108</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BB214" s="1">
         <v>6</v>
@@ -46270,7 +46245,7 @@
         <v>112</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>852</v>
@@ -46282,7 +46257,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>119</v>
@@ -46303,10 +46278,10 @@
         <v>674</v>
       </c>
       <c r="CD214" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46341,19 +46316,19 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="Q215" s="3">
         <v>26647</v>
@@ -46376,12 +46351,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -46431,7 +46401,7 @@
         <v>108</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BB215" s="1">
         <v>6</v>
@@ -46449,7 +46419,7 @@
         <v>112</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>187</v>
@@ -46461,7 +46431,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>119</v>
@@ -46479,13 +46449,13 @@
         <v>108</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="CD215" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="CD215" s="1" t="s">
-        <v>2368</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46520,19 +46490,19 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="Q216" s="3">
         <v>25405</v>
@@ -46561,12 +46531,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -46613,7 +46578,7 @@
         <v>108</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BB216" s="1">
         <v>6</v>
@@ -46622,7 +46587,7 @@
         <v>16</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>110</v>
@@ -46634,10 +46599,10 @@
         <v>112</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>115</v>
@@ -46649,13 +46614,13 @@
         <v>116</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BS216" s="3">
         <v>35243</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>119</v>
@@ -46673,13 +46638,13 @@
         <v>108</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46714,19 +46679,19 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="Q217" s="3">
         <v>28845</v>
@@ -46749,12 +46714,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -46804,7 +46764,7 @@
         <v>108</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BB217" s="1">
         <v>6</v>
@@ -46822,10 +46782,10 @@
         <v>112</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>115</v>
@@ -46834,7 +46794,7 @@
         <v>102</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>119</v>
@@ -46852,13 +46812,13 @@
         <v>108</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -46893,19 +46853,19 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="Q218" s="3">
         <v>21425</v>
@@ -46928,12 +46888,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -46983,7 +46938,7 @@
         <v>108</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BB218" s="1">
         <v>6</v>
@@ -47001,10 +46956,10 @@
         <v>112</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2400</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>115</v>
@@ -47016,7 +46971,7 @@
         <v>158</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>119</v>
@@ -47034,13 +46989,13 @@
         <v>108</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47075,19 +47030,19 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="Q219" s="3">
         <v>23039</v>
@@ -47110,12 +47065,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -47162,7 +47112,7 @@
         <v>108</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BB219" s="1">
         <v>6</v>
@@ -47171,7 +47121,7 @@
         <v>16</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>110</v>
@@ -47183,10 +47133,10 @@
         <v>112</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2412</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>115</v>
@@ -47198,13 +47148,13 @@
         <v>214</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BS219" s="3">
         <v>34307</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>119</v>
@@ -47222,13 +47172,13 @@
         <v>108</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>441</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47263,19 +47213,19 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="Q220" s="3">
         <v>23286</v>
@@ -47301,12 +47251,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -47356,7 +47301,7 @@
         <v>108</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BB220" s="1">
         <v>6</v>
@@ -47377,7 +47322,7 @@
         <v>112</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>187</v>
@@ -47389,7 +47334,7 @@
         <v>102</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>119</v>
@@ -47410,13 +47355,13 @@
         <v>108</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2426</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47451,19 +47396,19 @@
         <v>93</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2429</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="Q221" s="3">
         <v>26907</v>
@@ -47486,12 +47431,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2315</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>103</v>
       </c>
@@ -47538,7 +47478,7 @@
         <v>108</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BB221" s="1">
         <v>6</v>
@@ -47559,10 +47499,10 @@
         <v>112</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>115</v>
@@ -47574,13 +47514,13 @@
         <v>116</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BS221" s="3">
         <v>35950</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>119</v>
@@ -47598,13 +47538,13 @@
         <v>108</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>1747</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47639,19 +47579,19 @@
         <v>146</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="Q222" s="3">
         <v>26349</v>
@@ -47696,7 +47636,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47741,13 +47681,13 @@
         <v>112</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>119</v>
@@ -47771,10 +47711,10 @@
         <v>2206</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47809,19 +47749,19 @@
         <v>146</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="Q223" s="3">
         <v>30589</v>
@@ -47869,7 +47809,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -47914,13 +47854,13 @@
         <v>112</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>119</v>
@@ -47941,13 +47881,13 @@
         <v>108</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -47982,19 +47922,19 @@
         <v>146</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="Q224" s="3">
         <v>27354</v>
@@ -48042,7 +47982,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -48087,13 +48027,13 @@
         <v>112</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>119</v>
@@ -48114,13 +48054,13 @@
         <v>108</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="225" spans="1:83" x14ac:dyDescent="0.25">
@@ -48155,19 +48095,19 @@
         <v>146</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="Q225" s="3">
         <v>13756</v>
@@ -48257,13 +48197,13 @@
         <v>112</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>119</v>
@@ -48284,10 +48224,10 @@
         <v>108</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="CE225" s="1" t="s">
         <v>205</v>
@@ -48325,19 +48265,19 @@
         <v>146</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="Q226" s="3">
         <v>26074</v>
@@ -48385,7 +48325,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -48430,13 +48370,13 @@
         <v>112</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>119</v>
@@ -48460,13 +48400,13 @@
         <v>108</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48501,19 +48441,19 @@
         <v>146</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="Q227" s="3">
         <v>28808</v>
@@ -48558,7 +48498,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="AO227" s="1">
         <v>0</v>
@@ -48603,13 +48543,13 @@
         <v>112</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>119</v>
@@ -48630,13 +48570,13 @@
         <v>108</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2392</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48671,19 +48611,19 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="Q228" s="3">
         <v>23125</v>
@@ -48716,7 +48656,7 @@
         <v>42247</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>103</v>
@@ -48782,10 +48722,10 @@
         <v>112</v>
       </c>
       <c r="BH228" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>115</v>
@@ -48797,13 +48737,13 @@
         <v>214</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BS228" s="3">
         <v>36580</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>119</v>
@@ -48824,7 +48764,7 @@
         <v>108</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>305</v>
@@ -48865,19 +48805,19 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="Q229" s="3">
         <v>24907</v>
@@ -48964,13 +48904,13 @@
         <v>112</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="BI229" s="1" t="s">
+      <c r="BJ229" s="1" t="s">
         <v>2504</v>
-      </c>
-      <c r="BJ229" s="1" t="s">
-        <v>2505</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>115</v>
@@ -48985,7 +48925,7 @@
         <v>35679</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>119</v>
@@ -49003,7 +48943,7 @@
         <v>89</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>274</v>
@@ -49044,19 +48984,19 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="Q230" s="3">
         <v>28642</v>
@@ -49131,7 +49071,7 @@
         <v>108</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BB230" s="1">
         <v>6</v>
@@ -49149,7 +49089,7 @@
         <v>112</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1841</v>
@@ -49164,7 +49104,7 @@
         <v>158</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>119</v>
@@ -49182,13 +49122,13 @@
         <v>108</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="CD230" s="1" t="s">
         <v>441</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49223,19 +49163,19 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="Q231" s="3">
         <v>28239</v>
@@ -49307,7 +49247,7 @@
         <v>108</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BB231" s="1">
         <v>6</v>
@@ -49325,10 +49265,10 @@
         <v>112</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>115</v>
@@ -49340,13 +49280,13 @@
         <v>214</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BS231" s="3">
         <v>36099</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>119</v>
@@ -49364,13 +49304,13 @@
         <v>108</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49405,19 +49345,19 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="Q232" s="3">
         <v>25589</v>
@@ -49489,7 +49429,7 @@
         <v>108</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BB232" s="1">
         <v>6</v>
@@ -49507,7 +49447,7 @@
         <v>112</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1841</v>
@@ -49522,13 +49462,13 @@
         <v>99</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BS232" s="3">
         <v>37735</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>119</v>
@@ -49546,13 +49486,13 @@
         <v>108</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49587,19 +49527,19 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="Q233" s="3">
         <v>29170</v>
@@ -49674,7 +49614,7 @@
         <v>108</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BB233" s="1">
         <v>6</v>
@@ -49692,7 +49632,7 @@
         <v>112</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>115</v>
@@ -49701,7 +49641,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>119</v>
@@ -49719,13 +49659,13 @@
         <v>108</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>854</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49760,19 +49700,19 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="Q234" s="3">
         <v>27250</v>
@@ -49802,7 +49742,7 @@
         <v>103</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>1862</v>
@@ -49847,7 +49787,7 @@
         <v>108</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BB234" s="1">
         <v>6</v>
@@ -49865,7 +49805,7 @@
         <v>112</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>115</v>
@@ -49874,7 +49814,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>119</v>
@@ -49895,10 +49835,10 @@
         <v>1546</v>
       </c>
       <c r="CD234" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="CE234" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -49933,19 +49873,19 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="Q235" s="3">
         <v>27999</v>
@@ -50020,7 +49960,7 @@
         <v>108</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BB235" s="1">
         <v>6</v>
@@ -50038,7 +49978,7 @@
         <v>112</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>115</v>
@@ -50047,7 +49987,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>119</v>
@@ -50071,7 +50011,7 @@
         <v>927</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50106,19 +50046,19 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="Q236" s="3">
         <v>29305</v>
@@ -50151,7 +50091,7 @@
         <v>648</v>
       </c>
       <c r="AH236" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="AI236" s="1" t="s">
         <v>108</v>
@@ -50193,7 +50133,7 @@
         <v>108</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BB236" s="1">
         <v>6</v>
@@ -50211,10 +50151,10 @@
         <v>112</v>
       </c>
       <c r="BH236" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2573</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2574</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>115</v>
@@ -50223,7 +50163,7 @@
         <v>102</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>119</v>
@@ -50241,13 +50181,13 @@
         <v>108</v>
       </c>
       <c r="CC236" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="CD236" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="CD236" s="1" t="s">
+      <c r="CE236" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="CE236" s="1" t="s">
-        <v>2578</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50282,19 +50222,19 @@
         <v>146</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="R237" s="1" t="s">
         <v>133</v>
@@ -50330,7 +50270,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -50369,13 +50309,13 @@
         <v>112</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>119</v>
@@ -50393,16 +50333,17 @@
         <v>108</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>316</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF237" xr:uid="{33CB79C9-6988-42F7-9BC1-0F2C633F9D99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>